--- a/FAB/JLCSMT_CPL.xlsx
+++ b/FAB/JLCSMT_CPL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\Matt\Documents\WorkRepo\The-Black-Hellebore\FAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\Matt\Documents\WorkRepo\The-Black-Hellebore\FAB\NEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF30946A-EE95-4F29-ABD7-859C852E8FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A45AFC-E689-4DAE-8831-3AE3A5255D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="4110" windowWidth="24855" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="1830" windowWidth="24855" windowHeight="18675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -932,10 +932,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>37.088999999999999</v>
+        <v>36.908900000000003</v>
       </c>
       <c r="C6" s="2">
-        <v>88.5</v>
+        <v>88.7</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>152</v>
@@ -949,10 +949,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>140.589</v>
+        <v>140.97</v>
       </c>
       <c r="C7" s="2">
-        <v>32.512</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>152</v>
@@ -1017,10 +1017,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="2">
-        <v>38.607999999999997</v>
+        <v>38.353999999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>83.311999999999998</v>
+        <v>83.349000000000004</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>152</v>
@@ -1037,7 +1037,7 @@
         <v>34.417000000000002</v>
       </c>
       <c r="C12" s="2">
-        <v>83.566000000000003</v>
+        <v>83.82</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>152</v>
@@ -1153,7 +1153,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="2">
-        <v>278.51100000000002</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="C19" s="2">
         <v>2.286</v>
@@ -1170,7 +1170,7 @@
         <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>254.762</v>
+        <v>255.524</v>
       </c>
       <c r="C20" s="2">
         <v>2.4129999999999998</v>
@@ -1187,10 +1187,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>231.01300000000001</v>
+        <v>231.77500000000001</v>
       </c>
       <c r="C21" s="2">
-        <v>2.5289999999999999</v>
+        <v>2.286</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>152</v>
@@ -1204,7 +1204,7 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>207.26400000000001</v>
+        <v>207.899</v>
       </c>
       <c r="C22" s="2">
         <v>2.286</v>
@@ -1221,10 +1221,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>136.017</v>
+        <v>136.52500000000001</v>
       </c>
       <c r="C23" s="2">
-        <v>2.286</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>152</v>
@@ -1238,7 +1238,7 @@
         <v>30</v>
       </c>
       <c r="B24" s="2">
-        <v>64.77</v>
+        <v>64.897000000000006</v>
       </c>
       <c r="C24" s="2">
         <v>2.286</v>
@@ -1255,7 +1255,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="2">
-        <v>41.021000000000001</v>
+        <v>41.148000000000003</v>
       </c>
       <c r="C25" s="2">
         <v>2.286</v>
@@ -1272,10 +1272,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="2">
-        <v>17.271999999999998</v>
+        <v>17.399000000000001</v>
       </c>
       <c r="C26" s="2">
-        <v>2.4129999999999998</v>
+        <v>2.286</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>152</v>
@@ -1289,10 +1289,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="2">
-        <v>264.28699999999998</v>
+        <v>265.04899999999998</v>
       </c>
       <c r="C27" s="2">
-        <v>21.335999999999999</v>
+        <v>21.209</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>152</v>
@@ -1306,7 +1306,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="2">
-        <v>228.6</v>
+        <v>229.489</v>
       </c>
       <c r="C28" s="2">
         <v>21.209</v>
@@ -1323,7 +1323,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="2">
-        <v>209.67699999999999</v>
+        <v>210.31200000000001</v>
       </c>
       <c r="C29" s="2">
         <v>21.209</v>
@@ -1340,7 +1340,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="2">
-        <v>190.62700000000001</v>
+        <v>191.262</v>
       </c>
       <c r="C30" s="2">
         <v>21.209</v>
@@ -1357,7 +1357,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="2">
-        <v>171.70400000000001</v>
+        <v>172.21199999999999</v>
       </c>
       <c r="C31" s="2">
         <v>21.209</v>
@@ -1374,7 +1374,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="2">
-        <v>152.654</v>
+        <v>153.16200000000001</v>
       </c>
       <c r="C32" s="2">
         <v>21.209</v>
@@ -1391,7 +1391,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="2">
-        <v>133.73099999999999</v>
+        <v>134.11199999999999</v>
       </c>
       <c r="C33" s="2">
         <v>21.209</v>
@@ -1408,7 +1408,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="2">
-        <v>114.681</v>
+        <v>115.062</v>
       </c>
       <c r="C34" s="2">
         <v>21.335999999999999</v>
@@ -1425,7 +1425,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="2">
-        <v>95.757999999999996</v>
+        <v>95.885000000000005</v>
       </c>
       <c r="C35" s="2">
         <v>21.335999999999999</v>
@@ -1442,7 +1442,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="2">
-        <v>76.707999999999998</v>
+        <v>76.834999999999994</v>
       </c>
       <c r="C36" s="2">
         <v>21.335999999999999</v>
@@ -1459,7 +1459,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="2">
-        <v>57.658000000000001</v>
+        <v>57.784999999999997</v>
       </c>
       <c r="C37" s="2">
         <v>21.335999999999999</v>
@@ -1476,7 +1476,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="2">
-        <v>26.797000000000001</v>
+        <v>26.923999999999999</v>
       </c>
       <c r="C38" s="2">
         <v>21.335999999999999</v>
@@ -1493,7 +1493,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="2">
-        <v>268.98599999999999</v>
+        <v>269.875</v>
       </c>
       <c r="C39" s="2">
         <v>40.259</v>
@@ -1510,7 +1510,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="2">
-        <v>238.125</v>
+        <v>238.887</v>
       </c>
       <c r="C40" s="2">
         <v>40.259</v>
@@ -1527,7 +1527,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="2">
-        <v>219.202</v>
+        <v>219.83699999999999</v>
       </c>
       <c r="C41" s="2">
         <v>40.386000000000003</v>
@@ -1544,7 +1544,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="2">
-        <v>200.15199999999999</v>
+        <v>200.78700000000001</v>
       </c>
       <c r="C42" s="2">
         <v>40.259</v>
@@ -1561,7 +1561,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="2">
-        <v>181.102</v>
+        <v>181.73699999999999</v>
       </c>
       <c r="C43" s="2">
         <v>40.259</v>
@@ -1578,7 +1578,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="2">
-        <v>162.179</v>
+        <v>162.68700000000001</v>
       </c>
       <c r="C44" s="2">
         <v>40.259</v>
@@ -1595,7 +1595,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="2">
-        <v>143.12899999999999</v>
+        <v>143.637</v>
       </c>
       <c r="C45" s="2">
         <v>40.259</v>
@@ -1612,7 +1612,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="2">
-        <v>124.206</v>
+        <v>124.587</v>
       </c>
       <c r="C46" s="2">
         <v>40.259</v>
@@ -1629,7 +1629,7 @@
         <v>53</v>
       </c>
       <c r="B47" s="2">
-        <v>105.15600000000001</v>
+        <v>105.53700000000001</v>
       </c>
       <c r="C47" s="2">
         <v>40.259</v>
@@ -1646,7 +1646,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="2">
-        <v>86.233000000000004</v>
+        <v>86.486999999999995</v>
       </c>
       <c r="C48" s="2">
         <v>40.259</v>
@@ -1663,7 +1663,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="2">
-        <v>67.183000000000007</v>
+        <v>67.436999999999998</v>
       </c>
       <c r="C49" s="2">
         <v>40.259</v>
@@ -1680,7 +1680,7 @@
         <v>56</v>
       </c>
       <c r="B50" s="2">
-        <v>48.133000000000003</v>
+        <v>48.387</v>
       </c>
       <c r="C50" s="2">
         <v>40.259</v>
@@ -1697,7 +1697,7 @@
         <v>57</v>
       </c>
       <c r="B51" s="2">
-        <v>22.097999999999999</v>
+        <v>22.225000000000001</v>
       </c>
       <c r="C51" s="2">
         <v>40.259</v>
@@ -1714,7 +1714,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="2">
-        <v>276.22500000000002</v>
+        <v>276.98700000000002</v>
       </c>
       <c r="C52" s="2">
         <v>59.308999999999997</v>
@@ -1731,7 +1731,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>252.476</v>
+        <v>253.238</v>
       </c>
       <c r="C53" s="2">
         <v>59.308999999999997</v>
@@ -1748,7 +1748,7 @@
         <v>60</v>
       </c>
       <c r="B54" s="2">
-        <v>233.42599999999999</v>
+        <v>234.18799999999999</v>
       </c>
       <c r="C54" s="2">
         <v>59.308999999999997</v>
@@ -1765,7 +1765,7 @@
         <v>61</v>
       </c>
       <c r="B55" s="2">
-        <v>214.376</v>
+        <v>215.13800000000001</v>
       </c>
       <c r="C55" s="2">
         <v>59.308999999999997</v>
@@ -1782,7 +1782,7 @@
         <v>62</v>
       </c>
       <c r="B56" s="2">
-        <v>195.453</v>
+        <v>196.215</v>
       </c>
       <c r="C56" s="2">
         <v>59.308999999999997</v>
@@ -1799,7 +1799,7 @@
         <v>63</v>
       </c>
       <c r="B57" s="2">
-        <v>176.40299999999999</v>
+        <v>177.03800000000001</v>
       </c>
       <c r="C57" s="2">
         <v>59.308999999999997</v>
@@ -1816,7 +1816,7 @@
         <v>64</v>
       </c>
       <c r="B58" s="2">
-        <v>157.35300000000001</v>
+        <v>157.988</v>
       </c>
       <c r="C58" s="2">
         <v>59.308999999999997</v>
@@ -1833,10 +1833,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="2">
-        <v>138.43</v>
+        <v>138.93799999999999</v>
       </c>
       <c r="C59" s="2">
-        <v>59.308999999999997</v>
+        <v>59.436</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>152</v>
@@ -1850,7 +1850,7 @@
         <v>66</v>
       </c>
       <c r="B60" s="2">
-        <v>119.38</v>
+        <v>119.88800000000001</v>
       </c>
       <c r="C60" s="2">
         <v>59.308999999999997</v>
@@ -1867,7 +1867,7 @@
         <v>67</v>
       </c>
       <c r="B61" s="2">
-        <v>100.45699999999999</v>
+        <v>100.965</v>
       </c>
       <c r="C61" s="2">
         <v>59.308999999999997</v>
@@ -1884,7 +1884,7 @@
         <v>68</v>
       </c>
       <c r="B62" s="2">
-        <v>81.406999999999996</v>
+        <v>81.787999999999997</v>
       </c>
       <c r="C62" s="2">
         <v>59.308999999999997</v>
@@ -1901,7 +1901,7 @@
         <v>69</v>
       </c>
       <c r="B63" s="2">
-        <v>62.484000000000002</v>
+        <v>62.865000000000002</v>
       </c>
       <c r="C63" s="2">
         <v>59.308999999999997</v>
@@ -1918,10 +1918,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="2">
-        <v>43.433999999999997</v>
+        <v>43.688000000000002</v>
       </c>
       <c r="C64" s="2">
-        <v>59.308999999999997</v>
+        <v>59.436</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>152</v>
@@ -1935,7 +1935,7 @@
         <v>71</v>
       </c>
       <c r="B65" s="2">
-        <v>19.684999999999999</v>
+        <v>19.812000000000001</v>
       </c>
       <c r="C65" s="2">
         <v>59.308999999999997</v>
@@ -1952,10 +1952,10 @@
         <v>72</v>
       </c>
       <c r="B66" s="2">
-        <v>271.399</v>
+        <v>272.28800000000001</v>
       </c>
       <c r="C66" s="2">
-        <v>78.231999999999999</v>
+        <v>78.358999999999995</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>152</v>
@@ -1969,10 +1969,10 @@
         <v>73</v>
       </c>
       <c r="B67" s="2">
-        <v>242.95099999999999</v>
+        <v>243.71299999999999</v>
       </c>
       <c r="C67" s="2">
-        <v>78.231999999999999</v>
+        <v>78.358999999999995</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>152</v>
@@ -1986,10 +1986,10 @@
         <v>74</v>
       </c>
       <c r="B68" s="2">
-        <v>223.90100000000001</v>
+        <v>224.66300000000001</v>
       </c>
       <c r="C68" s="2">
-        <v>78.231999999999999</v>
+        <v>78.358999999999995</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>152</v>
@@ -2003,10 +2003,10 @@
         <v>75</v>
       </c>
       <c r="B69" s="2">
-        <v>204.97800000000001</v>
+        <v>205.613</v>
       </c>
       <c r="C69" s="2">
-        <v>78.231999999999999</v>
+        <v>78.358999999999995</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>152</v>
@@ -2020,10 +2020,10 @@
         <v>76</v>
       </c>
       <c r="B70" s="2">
-        <v>185.928</v>
+        <v>186.56299999999999</v>
       </c>
       <c r="C70" s="2">
-        <v>78.231999999999999</v>
+        <v>78.358999999999995</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>152</v>
@@ -2037,10 +2037,10 @@
         <v>77</v>
       </c>
       <c r="B71" s="2">
-        <v>166.87799999999999</v>
+        <v>167.51300000000001</v>
       </c>
       <c r="C71" s="2">
-        <v>78.231999999999999</v>
+        <v>78.358999999999995</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>152</v>
@@ -2054,7 +2054,7 @@
         <v>78</v>
       </c>
       <c r="B72" s="2">
-        <v>147.95500000000001</v>
+        <v>148.46299999999999</v>
       </c>
       <c r="C72" s="2">
         <v>78.358999999999995</v>
@@ -2071,7 +2071,7 @@
         <v>79</v>
       </c>
       <c r="B73" s="2">
-        <v>128.905</v>
+        <v>129.41300000000001</v>
       </c>
       <c r="C73" s="2">
         <v>78.358999999999995</v>
@@ -2088,7 +2088,7 @@
         <v>80</v>
       </c>
       <c r="B74" s="2">
-        <v>109.982</v>
+        <v>110.363</v>
       </c>
       <c r="C74" s="2">
         <v>78.358999999999995</v>
@@ -2105,7 +2105,7 @@
         <v>81</v>
       </c>
       <c r="B75" s="2">
-        <v>90.932000000000002</v>
+        <v>91.313000000000002</v>
       </c>
       <c r="C75" s="2">
         <v>78.358999999999995</v>
@@ -2122,7 +2122,7 @@
         <v>82</v>
       </c>
       <c r="B76" s="2">
-        <v>71.882000000000005</v>
+        <v>72.263000000000005</v>
       </c>
       <c r="C76" s="2">
         <v>78.358999999999995</v>
@@ -2139,7 +2139,7 @@
         <v>83</v>
       </c>
       <c r="B77" s="2">
-        <v>52.832000000000001</v>
+        <v>53.213000000000001</v>
       </c>
       <c r="C77" s="2">
         <v>78.358999999999995</v>
@@ -2156,7 +2156,7 @@
         <v>84</v>
       </c>
       <c r="B78" s="2">
-        <v>33.908999999999999</v>
+        <v>34.036000000000001</v>
       </c>
       <c r="C78" s="2">
         <v>78.358999999999995</v>
@@ -2173,7 +2173,7 @@
         <v>85</v>
       </c>
       <c r="B79" s="2">
-        <v>14.859</v>
+        <v>14.986000000000001</v>
       </c>
       <c r="C79" s="2">
         <v>78.358999999999995</v>
@@ -2261,7 +2261,7 @@
         <v>93.471999999999994</v>
       </c>
       <c r="C84" s="2">
-        <v>12.446</v>
+        <v>12.319000000000001</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>152</v>
@@ -2343,7 +2343,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="2">
-        <v>121.539</v>
+        <v>121.92</v>
       </c>
       <c r="C89" s="2">
         <v>32.512</v>
@@ -2360,10 +2360,10 @@
         <v>96</v>
       </c>
       <c r="B90" s="2">
-        <v>276.47899999999998</v>
+        <v>276.98700000000002</v>
       </c>
       <c r="C90" s="2">
-        <v>11.938000000000001</v>
+        <v>12.065</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>152</v>
@@ -2377,7 +2377,7 @@
         <v>97</v>
       </c>
       <c r="B91" s="2">
-        <v>252.73</v>
+        <v>253.238</v>
       </c>
       <c r="C91" s="2">
         <v>12.065</v>
@@ -2394,7 +2394,7 @@
         <v>98</v>
       </c>
       <c r="B92" s="2">
-        <v>228.98099999999999</v>
+        <v>229.36199999999999</v>
       </c>
       <c r="C92" s="2">
         <v>12.065</v>
@@ -2411,7 +2411,7 @@
         <v>99</v>
       </c>
       <c r="B93" s="2">
-        <v>205.232</v>
+        <v>205.613</v>
       </c>
       <c r="C93" s="2">
         <v>12.065</v>
@@ -2428,7 +2428,7 @@
         <v>100</v>
       </c>
       <c r="B94" s="2">
-        <v>133.98500000000001</v>
+        <v>134.239</v>
       </c>
       <c r="C94" s="2">
         <v>11.938000000000001</v>
@@ -2462,7 +2462,7 @@
         <v>102</v>
       </c>
       <c r="B96" s="2">
-        <v>38.988999999999997</v>
+        <v>38.862000000000002</v>
       </c>
       <c r="C96" s="2">
         <v>12.065</v>
@@ -2479,7 +2479,7 @@
         <v>103</v>
       </c>
       <c r="B97" s="2">
-        <v>15.24</v>
+        <v>15.113</v>
       </c>
       <c r="C97" s="2">
         <v>12.065</v>
@@ -2496,7 +2496,7 @@
         <v>104</v>
       </c>
       <c r="B98" s="2">
-        <v>14.605</v>
+        <v>14.731999999999999</v>
       </c>
       <c r="C98" s="2">
         <v>32.512</v>
@@ -2530,7 +2530,7 @@
         <v>106</v>
       </c>
       <c r="B100" s="2">
-        <v>64.516000000000005</v>
+        <v>64.77</v>
       </c>
       <c r="C100" s="2">
         <v>32.512</v>
@@ -2547,10 +2547,10 @@
         <v>107</v>
       </c>
       <c r="B101" s="2">
-        <v>83.566000000000003</v>
+        <v>83.82</v>
       </c>
       <c r="C101" s="2">
-        <v>32.512</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>152</v>
@@ -2564,10 +2564,10 @@
         <v>108</v>
       </c>
       <c r="B102" s="2">
-        <v>102.489</v>
+        <v>102.87</v>
       </c>
       <c r="C102" s="2">
-        <v>32.512</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>152</v>
@@ -2581,10 +2581,10 @@
         <v>109</v>
       </c>
       <c r="B103" s="2">
-        <v>159.63900000000001</v>
+        <v>160.02000000000001</v>
       </c>
       <c r="C103" s="2">
-        <v>32.512</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>152</v>
@@ -2598,10 +2598,10 @@
         <v>110</v>
       </c>
       <c r="B104" s="2">
-        <v>178.56200000000001</v>
+        <v>179.07</v>
       </c>
       <c r="C104" s="2">
-        <v>32.512</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>152</v>
@@ -2615,10 +2615,10 @@
         <v>111</v>
       </c>
       <c r="B105" s="2">
-        <v>197.48500000000001</v>
+        <v>198.12</v>
       </c>
       <c r="C105" s="2">
-        <v>32.512</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>152</v>
@@ -2632,10 +2632,10 @@
         <v>112</v>
       </c>
       <c r="B106" s="2">
-        <v>216.535</v>
+        <v>217.04300000000001</v>
       </c>
       <c r="C106" s="2">
-        <v>32.512</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>152</v>
@@ -2649,10 +2649,10 @@
         <v>113</v>
       </c>
       <c r="B107" s="2">
-        <v>252.22200000000001</v>
+        <v>252.857</v>
       </c>
       <c r="C107" s="2">
-        <v>32.512</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>152</v>
@@ -2666,10 +2666,10 @@
         <v>114</v>
       </c>
       <c r="B108" s="2">
-        <v>266.827</v>
+        <v>267.46199999999999</v>
       </c>
       <c r="C108" s="2">
-        <v>50.037999999999997</v>
+        <v>50.164999999999999</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>152</v>
@@ -2683,10 +2683,10 @@
         <v>115</v>
       </c>
       <c r="B109" s="2">
-        <v>235.96600000000001</v>
+        <v>236.601</v>
       </c>
       <c r="C109" s="2">
-        <v>50.037999999999997</v>
+        <v>50.164999999999999</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>152</v>
@@ -2700,10 +2700,10 @@
         <v>116</v>
       </c>
       <c r="B110" s="2">
-        <v>217.04300000000001</v>
+        <v>217.55099999999999</v>
       </c>
       <c r="C110" s="2">
-        <v>50.037999999999997</v>
+        <v>50.164999999999999</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>152</v>
@@ -2717,7 +2717,7 @@
         <v>117</v>
       </c>
       <c r="B111" s="2">
-        <v>197.99299999999999</v>
+        <v>198.501</v>
       </c>
       <c r="C111" s="2">
         <v>50.037999999999997</v>
@@ -2734,7 +2734,7 @@
         <v>118</v>
       </c>
       <c r="B112" s="2">
-        <v>179.07</v>
+        <v>179.45099999999999</v>
       </c>
       <c r="C112" s="2">
         <v>50.037999999999997</v>
@@ -2751,10 +2751,10 @@
         <v>119</v>
       </c>
       <c r="B113" s="2">
-        <v>160.14699999999999</v>
+        <v>160.40100000000001</v>
       </c>
       <c r="C113" s="2">
-        <v>50.037999999999997</v>
+        <v>50.164999999999999</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>152</v>
@@ -2768,7 +2768,7 @@
         <v>120</v>
       </c>
       <c r="B114" s="2">
-        <v>141.09700000000001</v>
+        <v>141.351</v>
       </c>
       <c r="C114" s="2">
         <v>50.037999999999997</v>
@@ -2785,10 +2785,10 @@
         <v>121</v>
       </c>
       <c r="B115" s="2">
-        <v>121.92</v>
+        <v>122.289</v>
       </c>
       <c r="C115" s="2">
-        <v>50.037999999999997</v>
+        <v>50.164999999999999</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>152</v>
@@ -2802,7 +2802,7 @@
         <v>122</v>
       </c>
       <c r="B116" s="2">
-        <v>102.997</v>
+        <v>103.251</v>
       </c>
       <c r="C116" s="2">
         <v>50.037999999999997</v>
@@ -2819,7 +2819,7 @@
         <v>123</v>
       </c>
       <c r="B117" s="2">
-        <v>84.073999999999998</v>
+        <v>84.200999999999993</v>
       </c>
       <c r="C117" s="2">
         <v>50.037999999999997</v>
@@ -2836,10 +2836,10 @@
         <v>124</v>
       </c>
       <c r="B118" s="2">
-        <v>221.36099999999999</v>
+        <v>221.869</v>
       </c>
       <c r="C118" s="2">
-        <v>70.484999999999999</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>152</v>
@@ -2853,7 +2853,7 @@
         <v>125</v>
       </c>
       <c r="B119" s="2">
-        <v>65.024000000000001</v>
+        <v>65.150999999999996</v>
       </c>
       <c r="C119" s="2">
         <v>50.037999999999997</v>
@@ -2870,7 +2870,7 @@
         <v>126</v>
       </c>
       <c r="B120" s="2">
-        <v>45.973999999999997</v>
+        <v>46.100999999999999</v>
       </c>
       <c r="C120" s="2">
         <v>50.037999999999997</v>
@@ -2887,7 +2887,7 @@
         <v>127</v>
       </c>
       <c r="B121" s="2">
-        <v>19.812000000000001</v>
+        <v>19.927</v>
       </c>
       <c r="C121" s="2">
         <v>50.037999999999997</v>
@@ -2924,7 +2924,7 @@
         <v>31.369</v>
       </c>
       <c r="C123" s="2">
-        <v>70.611999999999995</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>152</v>
@@ -2938,10 +2938,10 @@
         <v>130</v>
       </c>
       <c r="B124" s="2">
-        <v>50.292000000000002</v>
+        <v>50.304000000000002</v>
       </c>
       <c r="C124" s="2">
-        <v>70.484999999999999</v>
+        <v>70.611999999999995</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>152</v>
@@ -2955,10 +2955,10 @@
         <v>131</v>
       </c>
       <c r="B125" s="2">
-        <v>69.341999999999999</v>
+        <v>69.468999999999994</v>
       </c>
       <c r="C125" s="2">
-        <v>70.484999999999999</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>152</v>
@@ -2972,10 +2972,10 @@
         <v>132</v>
       </c>
       <c r="B126" s="2">
-        <v>88.265000000000001</v>
+        <v>88.391999999999996</v>
       </c>
       <c r="C126" s="2">
-        <v>70.611999999999995</v>
+        <v>70.866</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>152</v>
@@ -2989,10 +2989,10 @@
         <v>133</v>
       </c>
       <c r="B127" s="2">
-        <v>107.315</v>
+        <v>107.581</v>
       </c>
       <c r="C127" s="2">
-        <v>70.484999999999999</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>152</v>
@@ -3006,10 +3006,10 @@
         <v>134</v>
       </c>
       <c r="B128" s="2">
-        <v>126.36499999999999</v>
+        <v>126.504</v>
       </c>
       <c r="C128" s="2">
-        <v>70.484999999999999</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>152</v>
@@ -3023,10 +3023,10 @@
         <v>135</v>
       </c>
       <c r="B129" s="2">
-        <v>145.28800000000001</v>
+        <v>145.66900000000001</v>
       </c>
       <c r="C129" s="2">
-        <v>70.484999999999999</v>
+        <v>70.866</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>152</v>
@@ -3040,10 +3040,10 @@
         <v>136</v>
       </c>
       <c r="B130" s="2">
-        <v>164.33799999999999</v>
+        <v>164.71899999999999</v>
       </c>
       <c r="C130" s="2">
-        <v>70.484999999999999</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>152</v>
@@ -3057,10 +3057,10 @@
         <v>137</v>
       </c>
       <c r="B131" s="2">
-        <v>183.38800000000001</v>
+        <v>183.76900000000001</v>
       </c>
       <c r="C131" s="2">
-        <v>70.611999999999995</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>152</v>
@@ -3074,10 +3074,10 @@
         <v>138</v>
       </c>
       <c r="B132" s="2">
-        <v>202.31100000000001</v>
+        <v>202.81899999999999</v>
       </c>
       <c r="C132" s="2">
-        <v>70.484999999999999</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>152</v>
@@ -3091,10 +3091,10 @@
         <v>139</v>
       </c>
       <c r="B133" s="2">
-        <v>240.28399999999999</v>
+        <v>240.91900000000001</v>
       </c>
       <c r="C133" s="2">
-        <v>70.611999999999995</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>152</v>
@@ -3108,10 +3108,10 @@
         <v>140</v>
       </c>
       <c r="B134" s="2">
-        <v>264.03300000000002</v>
+        <v>264.79500000000002</v>
       </c>
       <c r="C134" s="2">
-        <v>70.484999999999999</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>152</v>
@@ -3125,10 +3125,10 @@
         <v>141</v>
       </c>
       <c r="B135" s="2">
-        <v>269.24</v>
+        <v>269.875</v>
       </c>
       <c r="C135" s="2">
-        <v>88.010999999999996</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>152</v>
@@ -3142,10 +3142,10 @@
         <v>142</v>
       </c>
       <c r="B136" s="2">
-        <v>240.66499999999999</v>
+        <v>241.3</v>
       </c>
       <c r="C136" s="2">
-        <v>88.010999999999996</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>152</v>
@@ -3159,10 +3159,10 @@
         <v>143</v>
       </c>
       <c r="B137" s="2">
-        <v>221.74199999999999</v>
+        <v>222.25</v>
       </c>
       <c r="C137" s="2">
-        <v>88.010999999999996</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>152</v>
@@ -3176,10 +3176,10 @@
         <v>144</v>
       </c>
       <c r="B138" s="2">
-        <v>202.69200000000001</v>
+        <v>203.2</v>
       </c>
       <c r="C138" s="2">
-        <v>88.010999999999996</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>152</v>
@@ -3193,10 +3193,10 @@
         <v>145</v>
       </c>
       <c r="B139" s="2">
-        <v>183.76900000000001</v>
+        <v>184.15</v>
       </c>
       <c r="C139" s="2">
-        <v>88.010999999999996</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>152</v>
@@ -3210,10 +3210,10 @@
         <v>146</v>
       </c>
       <c r="B140" s="2">
-        <v>164.71899999999999</v>
+        <v>165.1</v>
       </c>
       <c r="C140" s="2">
-        <v>88.010999999999996</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>152</v>
@@ -3227,10 +3227,10 @@
         <v>147</v>
       </c>
       <c r="B141" s="2">
-        <v>145.79599999999999</v>
+        <v>146.05000000000001</v>
       </c>
       <c r="C141" s="2">
-        <v>88.010999999999996</v>
+        <v>88.391999999999996</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>152</v>
@@ -3244,10 +3244,10 @@
         <v>148</v>
       </c>
       <c r="B142" s="2">
-        <v>126.873</v>
+        <v>127</v>
       </c>
       <c r="C142" s="2">
-        <v>88.010999999999996</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>152</v>
@@ -3261,10 +3261,10 @@
         <v>149</v>
       </c>
       <c r="B143" s="2">
-        <v>107.82299999999999</v>
+        <v>107.95</v>
       </c>
       <c r="C143" s="2">
-        <v>88.010999999999996</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>152</v>
@@ -3278,10 +3278,10 @@
         <v>150</v>
       </c>
       <c r="B144" s="2">
-        <v>88.772999999999996</v>
+        <v>88.9</v>
       </c>
       <c r="C144" s="2">
-        <v>88.010999999999996</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>152</v>
@@ -3298,7 +3298,7 @@
         <v>69.849999999999994</v>
       </c>
       <c r="C145" s="2">
-        <v>88.010999999999996</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>152</v>
@@ -3315,7 +3315,7 @@
         <v>50.8</v>
       </c>
       <c r="C146" s="2">
-        <v>88.010999999999996</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>152</v>
@@ -3329,10 +3329,10 @@
         <v>6</v>
       </c>
       <c r="B147" s="2">
-        <v>29.930499999999999</v>
+        <v>29.844999999999999</v>
       </c>
       <c r="C147" s="2">
-        <v>85.879199999999997</v>
+        <v>85.978999999999999</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>152</v>
@@ -3349,7 +3349,7 @@
         <v>12.7</v>
       </c>
       <c r="C148" s="2">
-        <v>88.010999999999996</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>152</v>

--- a/FAB/JLCSMT_CPL.xlsx
+++ b/FAB/JLCSMT_CPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\Matt\Documents\WorkRepo\The-Black-Hellebore\FAB\NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\Matt\Documents\WorkRepo\The-Black-Hellebore\FAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A45AFC-E689-4DAE-8831-3AE3A5255D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D12B0E-C351-471B-B43F-A1D579B42550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="1830" windowWidth="24855" windowHeight="18675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="2280" windowWidth="15495" windowHeight="18675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="160">
   <si>
     <t>Designator</t>
   </si>
@@ -478,7 +478,28 @@
     <t>C4</t>
   </si>
   <si>
-    <t>Bottom</t>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>BottomLayer</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>D62</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>C73</t>
+  </si>
+  <si>
+    <t>C72</t>
   </si>
 </sst>
 </file>
@@ -827,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -861,67 +882,67 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="B2" s="2">
-        <v>112.649</v>
+        <v>276.35199999999998</v>
       </c>
       <c r="C2" s="2">
-        <v>8.1280000000000001</v>
+        <v>32.512</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2">
-        <v>275.71699999999998</v>
+        <v>271.77999999999997</v>
       </c>
       <c r="C3" s="2">
-        <v>22.986999999999998</v>
+        <v>23.495000000000001</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="B4" s="2">
-        <v>112.649</v>
+        <v>274.19299999999998</v>
       </c>
       <c r="C4" s="2">
-        <v>4.9530000000000003</v>
+        <v>19.558</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B5" s="2">
-        <v>112.649</v>
+        <v>275.08199999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>11.303000000000001</v>
+        <v>21.716999999999999</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2">
         <v>180</v>
@@ -929,152 +950,152 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="B6" s="2">
-        <v>36.908900000000003</v>
+        <v>274.57400000000001</v>
       </c>
       <c r="C6" s="2">
-        <v>88.7</v>
+        <v>24.257000000000001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="B7" s="2">
-        <v>140.97</v>
+        <v>275.84399999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>32.639000000000003</v>
+        <v>19.558</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="B8" s="2">
-        <v>86.486999999999995</v>
+        <v>274.82799999999997</v>
       </c>
       <c r="C8" s="2">
-        <v>15.113</v>
+        <v>27.305</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E8" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>87.503</v>
+        <v>112.649</v>
       </c>
       <c r="C9" s="2">
-        <v>8.7629999999999999</v>
+        <v>8.1280000000000001</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>105.91800000000001</v>
+        <v>274.95499999999998</v>
       </c>
       <c r="C10" s="2">
-        <v>7.2389999999999999</v>
+        <v>30.861000000000001</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E10" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>38.353999999999999</v>
+        <v>112.52200000000001</v>
       </c>
       <c r="C11" s="2">
-        <v>83.349000000000004</v>
+        <v>4.9530000000000003</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E11" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>34.417000000000002</v>
+        <v>112.649</v>
       </c>
       <c r="C12" s="2">
-        <v>83.82</v>
+        <v>11.303000000000001</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>95.123000000000005</v>
+        <v>36.908900000000003</v>
       </c>
       <c r="C13" s="2">
-        <v>12.192</v>
+        <v>88.7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E13" s="2">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>106.934</v>
+        <v>140.97</v>
       </c>
       <c r="C14" s="2">
-        <v>11.811</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1082,152 +1103,152 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>106.934</v>
+        <v>86.486999999999995</v>
       </c>
       <c r="C15" s="2">
-        <v>13.208</v>
+        <v>15.113</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>88.9</v>
+        <v>87.503</v>
       </c>
       <c r="C16" s="2">
-        <v>15.202999999999999</v>
+        <v>8.7629999999999999</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E16" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>94.192499999999995</v>
+        <v>105.91800000000001</v>
       </c>
       <c r="C17" s="2">
-        <v>7.5587</v>
+        <v>7.2389999999999999</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E17" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>274.82799999999997</v>
+        <v>38.353999999999999</v>
       </c>
       <c r="C18" s="2">
-        <v>29.21</v>
+        <v>83.349000000000004</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E18" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>279.39999999999998</v>
+        <v>34.417000000000002</v>
       </c>
       <c r="C19" s="2">
-        <v>2.286</v>
+        <v>83.82</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E19" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>255.524</v>
+        <v>95.123000000000005</v>
       </c>
       <c r="C20" s="2">
-        <v>2.4129999999999998</v>
+        <v>12.192</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E20" s="2">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>231.77500000000001</v>
+        <v>106.934</v>
       </c>
       <c r="C21" s="2">
-        <v>2.286</v>
+        <v>11.811</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E21" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>207.899</v>
+        <v>106.934</v>
       </c>
       <c r="C22" s="2">
-        <v>2.286</v>
+        <v>13.208</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E22" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>136.52500000000001</v>
+        <v>88.9</v>
       </c>
       <c r="C23" s="2">
-        <v>2.2749999999999999</v>
+        <v>15.202999999999999</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E23" s="2">
         <v>90</v>
@@ -1235,50 +1256,50 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>64.897000000000006</v>
+        <v>94.192499999999995</v>
       </c>
       <c r="C24" s="2">
-        <v>2.286</v>
+        <v>7.5587</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E24" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>41.148000000000003</v>
+        <v>274.82799999999997</v>
       </c>
       <c r="C25" s="2">
-        <v>2.286</v>
+        <v>29.21</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E25" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>17.399000000000001</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="C26" s="2">
         <v>2.286</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E26" s="2">
         <v>90</v>
@@ -1286,16 +1307,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>265.04899999999998</v>
+        <v>255.524</v>
       </c>
       <c r="C27" s="2">
-        <v>21.209</v>
+        <v>2.4129999999999998</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E27" s="2">
         <v>90</v>
@@ -1303,16 +1324,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>229.489</v>
+        <v>231.77500000000001</v>
       </c>
       <c r="C28" s="2">
-        <v>21.209</v>
+        <v>2.286</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E28" s="2">
         <v>90</v>
@@ -1320,16 +1341,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>210.31200000000001</v>
+        <v>207.899</v>
       </c>
       <c r="C29" s="2">
-        <v>21.209</v>
+        <v>2.286</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E29" s="2">
         <v>90</v>
@@ -1337,16 +1358,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>191.262</v>
+        <v>136.52500000000001</v>
       </c>
       <c r="C30" s="2">
-        <v>21.209</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E30" s="2">
         <v>90</v>
@@ -1354,16 +1375,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>172.21199999999999</v>
+        <v>64.897000000000006</v>
       </c>
       <c r="C31" s="2">
-        <v>21.209</v>
+        <v>2.286</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E31" s="2">
         <v>90</v>
@@ -1371,16 +1392,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>153.16200000000001</v>
+        <v>41.148000000000003</v>
       </c>
       <c r="C32" s="2">
-        <v>21.209</v>
+        <v>2.286</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E32" s="2">
         <v>90</v>
@@ -1388,16 +1409,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>134.11199999999999</v>
+        <v>17.399000000000001</v>
       </c>
       <c r="C33" s="2">
-        <v>21.209</v>
+        <v>2.286</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E33" s="2">
         <v>90</v>
@@ -1405,16 +1426,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>115.062</v>
+        <v>265.04899999999998</v>
       </c>
       <c r="C34" s="2">
-        <v>21.335999999999999</v>
+        <v>21.209</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E34" s="2">
         <v>90</v>
@@ -1422,16 +1443,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>95.885000000000005</v>
+        <v>229.489</v>
       </c>
       <c r="C35" s="2">
-        <v>21.335999999999999</v>
+        <v>21.209</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E35" s="2">
         <v>90</v>
@@ -1439,16 +1460,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>76.834999999999994</v>
+        <v>210.31200000000001</v>
       </c>
       <c r="C36" s="2">
-        <v>21.335999999999999</v>
+        <v>21.209</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E36" s="2">
         <v>90</v>
@@ -1456,16 +1477,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>57.784999999999997</v>
+        <v>191.262</v>
       </c>
       <c r="C37" s="2">
-        <v>21.335999999999999</v>
+        <v>21.209</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E37" s="2">
         <v>90</v>
@@ -1473,16 +1494,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>26.923999999999999</v>
+        <v>172.21199999999999</v>
       </c>
       <c r="C38" s="2">
-        <v>21.335999999999999</v>
+        <v>21.209</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E38" s="2">
         <v>90</v>
@@ -1490,16 +1511,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>269.875</v>
+        <v>153.16200000000001</v>
       </c>
       <c r="C39" s="2">
-        <v>40.259</v>
+        <v>21.209</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E39" s="2">
         <v>90</v>
@@ -1507,16 +1528,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>238.887</v>
+        <v>134.11199999999999</v>
       </c>
       <c r="C40" s="2">
-        <v>40.259</v>
+        <v>21.209</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E40" s="2">
         <v>90</v>
@@ -1524,16 +1545,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>219.83699999999999</v>
+        <v>115.062</v>
       </c>
       <c r="C41" s="2">
-        <v>40.386000000000003</v>
+        <v>21.335999999999999</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E41" s="2">
         <v>90</v>
@@ -1541,16 +1562,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>200.78700000000001</v>
+        <v>95.885000000000005</v>
       </c>
       <c r="C42" s="2">
-        <v>40.259</v>
+        <v>21.335999999999999</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E42" s="2">
         <v>90</v>
@@ -1558,16 +1579,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>181.73699999999999</v>
+        <v>76.834999999999994</v>
       </c>
       <c r="C43" s="2">
-        <v>40.259</v>
+        <v>21.335999999999999</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E43" s="2">
         <v>90</v>
@@ -1575,16 +1596,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>162.68700000000001</v>
+        <v>57.784999999999997</v>
       </c>
       <c r="C44" s="2">
-        <v>40.259</v>
+        <v>21.335999999999999</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E44" s="2">
         <v>90</v>
@@ -1592,16 +1613,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>143.637</v>
+        <v>26.923999999999999</v>
       </c>
       <c r="C45" s="2">
-        <v>40.259</v>
+        <v>21.335999999999999</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E45" s="2">
         <v>90</v>
@@ -1609,16 +1630,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>124.587</v>
+        <v>269.875</v>
       </c>
       <c r="C46" s="2">
         <v>40.259</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E46" s="2">
         <v>90</v>
@@ -1626,16 +1647,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>105.53700000000001</v>
+        <v>238.887</v>
       </c>
       <c r="C47" s="2">
         <v>40.259</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E47" s="2">
         <v>90</v>
@@ -1643,16 +1664,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>86.486999999999995</v>
+        <v>219.83699999999999</v>
       </c>
       <c r="C48" s="2">
-        <v>40.259</v>
+        <v>40.386000000000003</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E48" s="2">
         <v>90</v>
@@ -1660,16 +1681,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>67.436999999999998</v>
+        <v>200.78700000000001</v>
       </c>
       <c r="C49" s="2">
         <v>40.259</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E49" s="2">
         <v>90</v>
@@ -1677,16 +1698,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>48.387</v>
+        <v>181.73699999999999</v>
       </c>
       <c r="C50" s="2">
         <v>40.259</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E50" s="2">
         <v>90</v>
@@ -1694,16 +1715,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>22.225000000000001</v>
+        <v>162.68700000000001</v>
       </c>
       <c r="C51" s="2">
         <v>40.259</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E51" s="2">
         <v>90</v>
@@ -1711,16 +1732,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>276.98700000000002</v>
+        <v>143.637</v>
       </c>
       <c r="C52" s="2">
-        <v>59.308999999999997</v>
+        <v>40.259</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E52" s="2">
         <v>90</v>
@@ -1728,16 +1749,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>253.238</v>
+        <v>124.587</v>
       </c>
       <c r="C53" s="2">
-        <v>59.308999999999997</v>
+        <v>40.259</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E53" s="2">
         <v>90</v>
@@ -1745,16 +1766,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>234.18799999999999</v>
+        <v>105.53700000000001</v>
       </c>
       <c r="C54" s="2">
-        <v>59.308999999999997</v>
+        <v>40.259</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E54" s="2">
         <v>90</v>
@@ -1762,16 +1783,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>215.13800000000001</v>
+        <v>86.486999999999995</v>
       </c>
       <c r="C55" s="2">
-        <v>59.308999999999997</v>
+        <v>40.259</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E55" s="2">
         <v>90</v>
@@ -1779,16 +1800,16 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>196.215</v>
+        <v>67.436999999999998</v>
       </c>
       <c r="C56" s="2">
-        <v>59.308999999999997</v>
+        <v>40.259</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E56" s="2">
         <v>90</v>
@@ -1796,16 +1817,16 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>177.03800000000001</v>
+        <v>48.387</v>
       </c>
       <c r="C57" s="2">
-        <v>59.308999999999997</v>
+        <v>40.259</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E57" s="2">
         <v>90</v>
@@ -1813,16 +1834,16 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>157.988</v>
+        <v>22.225000000000001</v>
       </c>
       <c r="C58" s="2">
-        <v>59.308999999999997</v>
+        <v>40.259</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E58" s="2">
         <v>90</v>
@@ -1830,16 +1851,16 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>138.93799999999999</v>
+        <v>276.98700000000002</v>
       </c>
       <c r="C59" s="2">
-        <v>59.436</v>
+        <v>59.308999999999997</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E59" s="2">
         <v>90</v>
@@ -1847,16 +1868,16 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>119.88800000000001</v>
+        <v>253.238</v>
       </c>
       <c r="C60" s="2">
         <v>59.308999999999997</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E60" s="2">
         <v>90</v>
@@ -1864,16 +1885,16 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>100.965</v>
+        <v>234.18799999999999</v>
       </c>
       <c r="C61" s="2">
         <v>59.308999999999997</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E61" s="2">
         <v>90</v>
@@ -1881,16 +1902,16 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>81.787999999999997</v>
+        <v>215.13800000000001</v>
       </c>
       <c r="C62" s="2">
         <v>59.308999999999997</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E62" s="2">
         <v>90</v>
@@ -1898,16 +1919,16 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>62.865000000000002</v>
+        <v>196.215</v>
       </c>
       <c r="C63" s="2">
         <v>59.308999999999997</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E63" s="2">
         <v>90</v>
@@ -1915,16 +1936,16 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>43.688000000000002</v>
+        <v>177.03800000000001</v>
       </c>
       <c r="C64" s="2">
-        <v>59.436</v>
+        <v>59.308999999999997</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E64" s="2">
         <v>90</v>
@@ -1932,16 +1953,16 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>19.812000000000001</v>
+        <v>157.988</v>
       </c>
       <c r="C65" s="2">
         <v>59.308999999999997</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E65" s="2">
         <v>90</v>
@@ -1949,16 +1970,16 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>272.28800000000001</v>
+        <v>138.93799999999999</v>
       </c>
       <c r="C66" s="2">
-        <v>78.358999999999995</v>
+        <v>59.436</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E66" s="2">
         <v>90</v>
@@ -1966,16 +1987,16 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>243.71299999999999</v>
+        <v>119.88800000000001</v>
       </c>
       <c r="C67" s="2">
-        <v>78.358999999999995</v>
+        <v>59.308999999999997</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E67" s="2">
         <v>90</v>
@@ -1983,16 +2004,16 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>224.66300000000001</v>
+        <v>100.965</v>
       </c>
       <c r="C68" s="2">
-        <v>78.358999999999995</v>
+        <v>59.308999999999997</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E68" s="2">
         <v>90</v>
@@ -2000,16 +2021,16 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>205.613</v>
+        <v>81.787999999999997</v>
       </c>
       <c r="C69" s="2">
-        <v>78.358999999999995</v>
+        <v>59.308999999999997</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E69" s="2">
         <v>90</v>
@@ -2017,16 +2038,16 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2">
-        <v>186.56299999999999</v>
+        <v>62.865000000000002</v>
       </c>
       <c r="C70" s="2">
-        <v>78.358999999999995</v>
+        <v>59.308999999999997</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E70" s="2">
         <v>90</v>
@@ -2034,16 +2055,16 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2">
-        <v>167.51300000000001</v>
+        <v>43.688000000000002</v>
       </c>
       <c r="C71" s="2">
-        <v>78.358999999999995</v>
+        <v>59.436</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E71" s="2">
         <v>90</v>
@@ -2051,16 +2072,16 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>148.46299999999999</v>
+        <v>19.812000000000001</v>
       </c>
       <c r="C72" s="2">
-        <v>78.358999999999995</v>
+        <v>59.308999999999997</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E72" s="2">
         <v>90</v>
@@ -2068,16 +2089,16 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2">
-        <v>129.41300000000001</v>
+        <v>272.28800000000001</v>
       </c>
       <c r="C73" s="2">
         <v>78.358999999999995</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E73" s="2">
         <v>90</v>
@@ -2085,16 +2106,16 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2">
-        <v>110.363</v>
+        <v>243.71299999999999</v>
       </c>
       <c r="C74" s="2">
         <v>78.358999999999995</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E74" s="2">
         <v>90</v>
@@ -2102,16 +2123,16 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2">
-        <v>91.313000000000002</v>
+        <v>224.66300000000001</v>
       </c>
       <c r="C75" s="2">
         <v>78.358999999999995</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E75" s="2">
         <v>90</v>
@@ -2119,16 +2140,16 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2">
-        <v>72.263000000000005</v>
+        <v>205.613</v>
       </c>
       <c r="C76" s="2">
         <v>78.358999999999995</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E76" s="2">
         <v>90</v>
@@ -2136,16 +2157,16 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2">
-        <v>53.213000000000001</v>
+        <v>186.56299999999999</v>
       </c>
       <c r="C77" s="2">
         <v>78.358999999999995</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E77" s="2">
         <v>90</v>
@@ -2153,16 +2174,16 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2">
-        <v>34.036000000000001</v>
+        <v>167.51300000000001</v>
       </c>
       <c r="C78" s="2">
         <v>78.358999999999995</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E78" s="2">
         <v>90</v>
@@ -2170,16 +2191,16 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>14.986000000000001</v>
+        <v>148.46299999999999</v>
       </c>
       <c r="C79" s="2">
         <v>78.358999999999995</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E79" s="2">
         <v>90</v>
@@ -2187,169 +2208,169 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>36.576000000000001</v>
+        <v>129.41300000000001</v>
       </c>
       <c r="C80" s="2">
-        <v>75.183999999999997</v>
+        <v>78.358999999999995</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E80" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>81.534000000000006</v>
+        <v>110.363</v>
       </c>
       <c r="C81" s="2">
-        <v>12.446</v>
+        <v>78.358999999999995</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E81" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>83.82</v>
+        <v>91.313000000000002</v>
       </c>
       <c r="C82" s="2">
-        <v>2.9209999999999998</v>
+        <v>78.358999999999995</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E82" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>91.186000000000007</v>
+        <v>72.263000000000005</v>
       </c>
       <c r="C83" s="2">
-        <v>14.731999999999999</v>
+        <v>78.358999999999995</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E83" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>93.471999999999994</v>
+        <v>53.213000000000001</v>
       </c>
       <c r="C84" s="2">
-        <v>12.319000000000001</v>
+        <v>78.358999999999995</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E84" s="2">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>104.01300000000001</v>
+        <v>34.036000000000001</v>
       </c>
       <c r="C85" s="2">
-        <v>11.811</v>
+        <v>78.358999999999995</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E85" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>94.192499999999995</v>
+        <v>14.986000000000001</v>
       </c>
       <c r="C86" s="2">
-        <v>6.0347</v>
+        <v>78.358999999999995</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E86" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2">
-        <v>94.192499999999995</v>
+        <v>36.576000000000001</v>
       </c>
       <c r="C87" s="2">
-        <v>9.0827000000000009</v>
+        <v>75.183999999999997</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E87" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2">
-        <v>83.311999999999998</v>
+        <v>81.534000000000006</v>
       </c>
       <c r="C88" s="2">
-        <v>14.859</v>
+        <v>12.446</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E88" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2">
-        <v>121.92</v>
+        <v>83.82</v>
       </c>
       <c r="C89" s="2">
-        <v>32.512</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
@@ -2357,16 +2378,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2">
-        <v>276.98700000000002</v>
+        <v>91.186000000000007</v>
       </c>
       <c r="C90" s="2">
-        <v>12.065</v>
+        <v>14.731999999999999</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E90" s="2">
         <v>180</v>
@@ -2374,50 +2395,50 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>253.238</v>
+        <v>93.471999999999994</v>
       </c>
       <c r="C91" s="2">
-        <v>12.065</v>
+        <v>12.319000000000001</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E91" s="2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2">
-        <v>229.36199999999999</v>
+        <v>104.01300000000001</v>
       </c>
       <c r="C92" s="2">
-        <v>12.065</v>
+        <v>11.811</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E92" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>205.613</v>
+        <v>94.192499999999995</v>
       </c>
       <c r="C93" s="2">
-        <v>12.065</v>
+        <v>6.0347</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E93" s="2">
         <v>180</v>
@@ -2425,67 +2446,67 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>134.239</v>
+        <v>94.192499999999995</v>
       </c>
       <c r="C94" s="2">
-        <v>11.938000000000001</v>
+        <v>9.0827000000000009</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E94" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2">
-        <v>62.738</v>
+        <v>83.311999999999998</v>
       </c>
       <c r="C95" s="2">
-        <v>12.065</v>
+        <v>14.859</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E95" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2">
-        <v>38.862000000000002</v>
+        <v>121.92</v>
       </c>
       <c r="C96" s="2">
-        <v>12.065</v>
+        <v>32.512</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E96" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2">
-        <v>15.113</v>
+        <v>276.98700000000002</v>
       </c>
       <c r="C97" s="2">
         <v>12.065</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E97" s="2">
         <v>180</v>
@@ -2493,135 +2514,135 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2">
-        <v>14.731999999999999</v>
+        <v>253.238</v>
       </c>
       <c r="C98" s="2">
-        <v>32.512</v>
+        <v>12.065</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E98" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2">
-        <v>45.466000000000001</v>
+        <v>229.36199999999999</v>
       </c>
       <c r="C99" s="2">
-        <v>32.512</v>
+        <v>12.065</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E99" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2">
-        <v>64.77</v>
+        <v>205.613</v>
       </c>
       <c r="C100" s="2">
-        <v>32.512</v>
+        <v>12.065</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E100" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2">
-        <v>83.82</v>
+        <v>134.239</v>
       </c>
       <c r="C101" s="2">
-        <v>32.639000000000003</v>
+        <v>11.938000000000001</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E101" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2">
-        <v>102.87</v>
+        <v>62.738</v>
       </c>
       <c r="C102" s="2">
-        <v>32.639000000000003</v>
+        <v>12.065</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E102" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2">
-        <v>160.02000000000001</v>
+        <v>38.862000000000002</v>
       </c>
       <c r="C103" s="2">
-        <v>32.639000000000003</v>
+        <v>12.065</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E103" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2">
-        <v>179.07</v>
+        <v>15.113</v>
       </c>
       <c r="C104" s="2">
-        <v>32.639000000000003</v>
+        <v>12.065</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2">
-        <v>198.12</v>
+        <v>14.731999999999999</v>
       </c>
       <c r="C105" s="2">
-        <v>32.639000000000003</v>
+        <v>32.512</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E105" s="2">
         <v>0</v>
@@ -2629,16 +2650,16 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2">
-        <v>217.04300000000001</v>
+        <v>45.466000000000001</v>
       </c>
       <c r="C106" s="2">
-        <v>32.639000000000003</v>
+        <v>32.512</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E106" s="2">
         <v>0</v>
@@ -2646,16 +2667,16 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2">
-        <v>252.857</v>
+        <v>64.77</v>
       </c>
       <c r="C107" s="2">
-        <v>32.639000000000003</v>
+        <v>32.512</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E107" s="2">
         <v>0</v>
@@ -2663,135 +2684,135 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2">
-        <v>267.46199999999999</v>
+        <v>83.82</v>
       </c>
       <c r="C108" s="2">
-        <v>50.164999999999999</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2">
-        <v>236.601</v>
+        <v>102.87</v>
       </c>
       <c r="C109" s="2">
-        <v>50.164999999999999</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2">
-        <v>217.55099999999999</v>
+        <v>160.02000000000001</v>
       </c>
       <c r="C110" s="2">
-        <v>50.164999999999999</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2">
-        <v>198.501</v>
+        <v>179.07</v>
       </c>
       <c r="C111" s="2">
-        <v>50.037999999999997</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2">
-        <v>179.45099999999999</v>
+        <v>198.12</v>
       </c>
       <c r="C112" s="2">
-        <v>50.037999999999997</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2">
-        <v>160.40100000000001</v>
+        <v>217.04300000000001</v>
       </c>
       <c r="C113" s="2">
-        <v>50.164999999999999</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2">
-        <v>141.351</v>
+        <v>252.857</v>
       </c>
       <c r="C114" s="2">
-        <v>50.037999999999997</v>
+        <v>32.639000000000003</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2">
-        <v>122.289</v>
+        <v>267.46199999999999</v>
       </c>
       <c r="C115" s="2">
         <v>50.164999999999999</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E115" s="2">
         <v>180</v>
@@ -2799,16 +2820,16 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2">
-        <v>103.251</v>
+        <v>236.601</v>
       </c>
       <c r="C116" s="2">
-        <v>50.037999999999997</v>
+        <v>50.164999999999999</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E116" s="2">
         <v>180</v>
@@ -2816,16 +2837,16 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2">
-        <v>84.200999999999993</v>
+        <v>217.55099999999999</v>
       </c>
       <c r="C117" s="2">
-        <v>50.037999999999997</v>
+        <v>50.164999999999999</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E117" s="2">
         <v>180</v>
@@ -2833,33 +2854,33 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2">
-        <v>221.869</v>
+        <v>198.501</v>
       </c>
       <c r="C118" s="2">
-        <v>70.739000000000004</v>
+        <v>50.037999999999997</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E118" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2">
-        <v>65.150999999999996</v>
+        <v>179.45099999999999</v>
       </c>
       <c r="C119" s="2">
         <v>50.037999999999997</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E119" s="2">
         <v>180</v>
@@ -2867,16 +2888,16 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2">
-        <v>46.100999999999999</v>
+        <v>160.40100000000001</v>
       </c>
       <c r="C120" s="2">
-        <v>50.037999999999997</v>
+        <v>50.164999999999999</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E120" s="2">
         <v>180</v>
@@ -2884,16 +2905,16 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2">
-        <v>19.927</v>
+        <v>141.351</v>
       </c>
       <c r="C121" s="2">
         <v>50.037999999999997</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E121" s="2">
         <v>180</v>
@@ -2901,67 +2922,67 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2">
-        <v>7.5785</v>
+        <v>122.289</v>
       </c>
       <c r="C122" s="2">
-        <v>70.639200000000002</v>
+        <v>50.164999999999999</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E122" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2">
-        <v>31.369</v>
+        <v>103.251</v>
       </c>
       <c r="C123" s="2">
-        <v>70.739000000000004</v>
+        <v>50.037999999999997</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E123" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2">
-        <v>50.304000000000002</v>
+        <v>84.200999999999993</v>
       </c>
       <c r="C124" s="2">
-        <v>70.611999999999995</v>
+        <v>50.037999999999997</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E124" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B125" s="2">
-        <v>69.468999999999994</v>
+        <v>221.869</v>
       </c>
       <c r="C125" s="2">
         <v>70.739000000000004</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E125" s="2">
         <v>0</v>
@@ -2969,67 +2990,67 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2">
-        <v>88.391999999999996</v>
+        <v>65.150999999999996</v>
       </c>
       <c r="C126" s="2">
-        <v>70.866</v>
+        <v>50.037999999999997</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E126" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2">
-        <v>107.581</v>
+        <v>46.100999999999999</v>
       </c>
       <c r="C127" s="2">
-        <v>70.739000000000004</v>
+        <v>50.037999999999997</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E127" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2">
-        <v>126.504</v>
+        <v>19.927</v>
       </c>
       <c r="C128" s="2">
-        <v>70.739000000000004</v>
+        <v>50.037999999999997</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E128" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2">
-        <v>145.66900000000001</v>
+        <v>7.5785</v>
       </c>
       <c r="C129" s="2">
-        <v>70.866</v>
+        <v>70.639200000000002</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E129" s="2">
         <v>0</v>
@@ -3037,16 +3058,16 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2">
-        <v>164.71899999999999</v>
+        <v>31.369</v>
       </c>
       <c r="C130" s="2">
         <v>70.739000000000004</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E130" s="2">
         <v>0</v>
@@ -3054,16 +3075,16 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2">
-        <v>183.76900000000001</v>
+        <v>50.304000000000002</v>
       </c>
       <c r="C131" s="2">
-        <v>70.739000000000004</v>
+        <v>70.611999999999995</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E131" s="2">
         <v>0</v>
@@ -3071,16 +3092,16 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2">
-        <v>202.81899999999999</v>
+        <v>69.468999999999994</v>
       </c>
       <c r="C132" s="2">
         <v>70.739000000000004</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E132" s="2">
         <v>0</v>
@@ -3088,16 +3109,16 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2">
-        <v>240.91900000000001</v>
+        <v>88.391999999999996</v>
       </c>
       <c r="C133" s="2">
-        <v>70.739000000000004</v>
+        <v>70.866</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E133" s="2">
         <v>0</v>
@@ -3105,16 +3126,16 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2">
-        <v>264.79500000000002</v>
+        <v>107.581</v>
       </c>
       <c r="C134" s="2">
         <v>70.739000000000004</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E134" s="2">
         <v>0</v>
@@ -3122,135 +3143,135 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2">
-        <v>269.875</v>
+        <v>126.504</v>
       </c>
       <c r="C135" s="2">
-        <v>88.265000000000001</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E135" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2">
-        <v>241.3</v>
+        <v>145.66900000000001</v>
       </c>
       <c r="C136" s="2">
-        <v>88.265000000000001</v>
+        <v>70.866</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E136" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2">
-        <v>222.25</v>
+        <v>164.71899999999999</v>
       </c>
       <c r="C137" s="2">
-        <v>88.265000000000001</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E137" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2">
-        <v>203.2</v>
+        <v>183.76900000000001</v>
       </c>
       <c r="C138" s="2">
-        <v>88.265000000000001</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E138" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2">
-        <v>184.15</v>
+        <v>202.81899999999999</v>
       </c>
       <c r="C139" s="2">
-        <v>88.265000000000001</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E139" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2">
-        <v>165.1</v>
+        <v>240.91900000000001</v>
       </c>
       <c r="C140" s="2">
-        <v>88.265000000000001</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E140" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2">
-        <v>146.05000000000001</v>
+        <v>264.79500000000002</v>
       </c>
       <c r="C141" s="2">
-        <v>88.391999999999996</v>
+        <v>70.739000000000004</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E141" s="2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2">
-        <v>127</v>
+        <v>269.875</v>
       </c>
       <c r="C142" s="2">
         <v>88.265000000000001</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E142" s="2">
         <v>180</v>
@@ -3258,16 +3279,16 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B143" s="2">
-        <v>107.95</v>
+        <v>241.3</v>
       </c>
       <c r="C143" s="2">
         <v>88.265000000000001</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E143" s="2">
         <v>180</v>
@@ -3275,16 +3296,16 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B144" s="2">
-        <v>88.9</v>
+        <v>222.25</v>
       </c>
       <c r="C144" s="2">
         <v>88.265000000000001</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E144" s="2">
         <v>180</v>
@@ -3292,16 +3313,16 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B145" s="2">
-        <v>69.849999999999994</v>
+        <v>203.2</v>
       </c>
       <c r="C145" s="2">
         <v>88.265000000000001</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E145" s="2">
         <v>180</v>
@@ -3309,16 +3330,16 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2">
-        <v>50.8</v>
+        <v>184.15</v>
       </c>
       <c r="C146" s="2">
         <v>88.265000000000001</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E146" s="2">
         <v>180</v>
@@ -3326,35 +3347,154 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2">
-        <v>29.844999999999999</v>
+        <v>165.1</v>
       </c>
       <c r="C147" s="2">
-        <v>85.978999999999999</v>
+        <v>88.265000000000001</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E147" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2">
+        <v>146.05000000000001</v>
+      </c>
+      <c r="C148" s="2">
+        <v>88.391999999999996</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E148" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2">
+        <v>127</v>
+      </c>
+      <c r="C149" s="2">
+        <v>88.265000000000001</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E149" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2">
+        <v>107.95</v>
+      </c>
+      <c r="C150" s="2">
+        <v>88.265000000000001</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E150" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2">
+        <v>88.9</v>
+      </c>
+      <c r="C151" s="2">
+        <v>88.265000000000001</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E151" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="C152" s="2">
+        <v>88.265000000000001</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E152" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="2">
+        <v>50.8</v>
+      </c>
+      <c r="C153" s="2">
+        <v>88.265000000000001</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E153" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="2">
+        <v>29.844999999999999</v>
+      </c>
+      <c r="C154" s="2">
+        <v>85.978999999999999</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E154" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B155" s="2">
         <v>12.7</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C155" s="2">
         <v>88.265000000000001</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E148" s="2">
+      <c r="D155" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E155" s="2">
         <v>180</v>
       </c>
     </row>
